--- a/trunk/Tracking Process.xlsx
+++ b/trunk/Tracking Process.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Database" sheetId="2" r:id="rId2"/>
-    <sheet name="Web" sheetId="3" r:id="rId3"/>
-    <sheet name="Server LMS" sheetId="4" r:id="rId4"/>
-    <sheet name="GateWay" sheetId="5" r:id="rId5"/>
+    <sheet name="Document" sheetId="6" r:id="rId2"/>
+    <sheet name="Database" sheetId="2" r:id="rId3"/>
+    <sheet name="Web" sheetId="3" r:id="rId4"/>
+    <sheet name="Server LMS" sheetId="4" r:id="rId5"/>
+    <sheet name="GateWay" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Project Name : LMS System</t>
   </si>
@@ -125,6 +126,54 @@
   </si>
   <si>
     <t>% Completed</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>ArchitectureDesign</t>
+  </si>
+  <si>
+    <t>CoCheBienDichCuaJPos</t>
+  </si>
+  <si>
+    <t>CRM_LMS_ActualState And Solution</t>
+  </si>
+  <si>
+    <t>jpos tren LINUX</t>
+  </si>
+  <si>
+    <t>QSP và Q2</t>
+  </si>
+  <si>
+    <t>SequenceDiagram</t>
+  </si>
+  <si>
+    <t>spec</t>
+  </si>
+  <si>
+    <t>Tescase Loyalty Manage System</t>
+  </si>
+  <si>
+    <t>ThietKeDuLieu</t>
+  </si>
+  <si>
+    <t>Tìm hiều về chuẩn ISO8583</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>usercase model</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>Database process tracking</t>
+  </si>
+  <si>
+    <t>Document process tracking</t>
   </si>
 </sst>
 </file>
@@ -132,9 +181,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +196,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,33 +228,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -555,23 +636,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="48" customHeight="1">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="1"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="D6" s="1"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -629,141 +710,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5">
-        <v>40277</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -772,13 +837,181 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="13">
+        <v>40277</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -804,4 +1037,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/Tracking Process.xlsx
+++ b/trunk/Tracking Process.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project Info" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Server LMS" sheetId="4" r:id="rId5"/>
     <sheet name="GateWay" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -256,12 +256,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,6 +273,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,23 +636,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="48" customHeight="1">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="D3" s="4"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="D5" s="5"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="D6" s="5"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -724,111 +724,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,159 +855,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="60">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>40277</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
